--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>时间</t>
   </si>
@@ -22,7 +22,34 @@
     <t>文件</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>如何下载需要的插件.md</t>
+  </si>
+  <si>
+    <t>PlugIn</t>
+  </si>
+  <si>
+    <t>基本概念.md</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>常用网站.md</t>
+  </si>
+  <si>
+    <t>常用的编辑器设置.md</t>
+  </si>
+  <si>
+    <t>编译CPlusPlus代码.md</t>
+  </si>
+  <si>
+    <t>编译CPlusPlus代码2.md</t>
+  </si>
+  <si>
+    <t>好用的插件.md</t>
   </si>
 </sst>
 </file>
@@ -35,14 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,148 +524,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,62 +997,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>45395</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
